--- a/Documentation/Gabarits et Outils EXCEL/gabarit-naif_switch1.xlsx
+++ b/Documentation/Gabarits et Outils EXCEL/gabarit-naif_switch1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\Gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\Gabarits et Outils EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="naif_switch1" sheetId="1" r:id="rId1"/>
-    <sheet name="naif_switch1_02" sheetId="2" r:id="rId2"/>
-    <sheet name="naif_switch1_03" sheetId="3" r:id="rId3"/>
-    <sheet name="naif_switch1_04" sheetId="4" r:id="rId4"/>
-    <sheet name="naif_switch1_05" sheetId="5" r:id="rId5"/>
-    <sheet name="naif_switch1_06" sheetId="6" r:id="rId6"/>
-    <sheet name="naif_switch1_07" sheetId="7" r:id="rId7"/>
-    <sheet name="naif_switch1_08" sheetId="8" r:id="rId8"/>
-    <sheet name="naif_switch1_09" sheetId="9" r:id="rId9"/>
-    <sheet name="naif_switch1_10" sheetId="10" r:id="rId10"/>
+    <sheet name="naif_switch1_02" sheetId="29" r:id="rId2"/>
+    <sheet name="naif_switch1_03" sheetId="30" r:id="rId3"/>
+    <sheet name="naif_switch1_04" sheetId="31" r:id="rId4"/>
+    <sheet name="naif_switch1_05" sheetId="32" r:id="rId5"/>
+    <sheet name="naif_switch1_06" sheetId="33" r:id="rId6"/>
+    <sheet name="naif_switch1_07" sheetId="34" r:id="rId7"/>
+    <sheet name="naif_switch1_08" sheetId="35" r:id="rId8"/>
+    <sheet name="naif_switch1_09" sheetId="36" r:id="rId9"/>
+    <sheet name="naif_switch1_10" sheetId="37" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="36">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -113,9 +113,6 @@
     <t>GROUPER_PAR</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
     <t>NJOURS_SANS_CONSO</t>
   </si>
   <si>
@@ -125,13 +122,43 @@
     <t>RX_RETROSPECT_A_EXCLURE</t>
   </si>
   <si>
-    <t/>
+    <t>AHFS</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>CodeList</t>
+  </si>
+  <si>
+    <t>CodeServ</t>
+  </si>
+  <si>
+    <t>Teneur</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AGE_DATE</t>
+  </si>
+  <si>
+    <t>TYPE_RX_RETRO</t>
+  </si>
+  <si>
+    <t>_type_rx_retro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -185,6 +212,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +494,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,26 +502,28 @@
   <cols>
     <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -512,135 +542,260 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="423" yWindow="280" count="15">
+  <dataValidations xWindow="423" yWindow="280" count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
@@ -649,25 +804,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -676,7 +835,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,22 +847,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -722,154 +883,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -886,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -898,22 +1188,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -932,154 +1224,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -1096,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,22 +1529,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1142,154 +1565,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -1306,7 +1858,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,22 +1870,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1352,154 +1906,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -1516,7 +2199,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1528,22 +2211,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1562,154 +2247,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -1726,7 +2540,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1738,22 +2552,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1772,154 +2588,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -1936,7 +2881,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,22 +2893,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1982,154 +2929,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -2146,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2158,22 +3234,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2192,154 +3270,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
@@ -2356,7 +3563,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2368,22 +3575,24 @@
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2402,154 +3611,283 @@
       <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="10">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
         <v>365</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+      <c r="R2" s="6" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O3" s="1" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
-        <v>AD</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="N3"/>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O4" s="1" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4"/>
+      <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="str">
+      <c r="R4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O6" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="str">
-        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+      <c r="R7" s="6" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
         <v>03</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="6" t="str">
-        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="R9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O11" s="1" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="6" t="str">
-        <f>IF(COUNTIF(F2,O12),"",O12)</f>
-        <v>Codes</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>$P$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
-      <formula1>$R$2:$R$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
-      <formula1>$P$7:$P$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$P$2:$P$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
